--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_AREPD.xlsx
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>78.52099018643423</v>
+        <v>82.40641713471288</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>83.95370277110462</v>
+        <v>86.73939412659749</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>89.1190334852234</v>
+        <v>89.80045417174072</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>95.65181400659117</v>
+        <v>95.88925451112898</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <v>95.84693506239572</v>
+        <v>95.88701720109172</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>95.65625697351045</v>
+        <v>95.87308791677911</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>99.43812834087041</v>
+        <v>98.41432840090805</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>98.7274844337197</v>
+        <v>97.0255619905421</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>99.26476432394776</v>
+        <v>98.11787034460517</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>99.20116024123831</v>
+        <v>99.32639786170625</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>98.96741740298026</v>
+        <v>99.21500274414939</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>98.96170610740273</v>
+        <v>99.27432671514555</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>98.51748379695032</v>
+        <v>98.72743293293674</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>98.6497214147689</v>
+        <v>98.79197456695178</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -685,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>98.63522856969398</v>
+        <v>98.7566203622452</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>98.01692397292034</v>
+        <v>98.2289834120438</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -701,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>97.98617852129675</v>
+        <v>98.29785025341207</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>98.2386806482526</v>
+        <v>98.21321661171832</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="G20">
-        <v>97.17809340537421</v>
+        <v>97.25361541597267</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="G21">
-        <v>97.21650056498372</v>
+        <v>97.33924396059854</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="G22">
-        <v>97.05273817843971</v>
+        <v>97.28763606178265</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>91.11064267572236</v>
+        <v>88.85368895367749</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -749,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>91.55200214079366</v>
+        <v>91.8468054008783</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -757,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>95.66503754308468</v>
+        <v>95.91481121943517</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -765,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="H26">
-        <v>95.63228469635517</v>
+        <v>95.87691392297177</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>99.19887681299133</v>
+        <v>97.7092903514183</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -781,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>99.44610909842299</v>
+        <v>97.88577715113331</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -789,7 +789,7 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>99.08388194534791</v>
+        <v>99.28963624262335</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>99.22737525137208</v>
+        <v>99.26375222298115</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -805,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>98.68452966380828</v>
+        <v>98.78417761786724</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="E32">
-        <v>98.57663540891487</v>
+        <v>98.74528000914586</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -821,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="F33">
-        <v>98.05430974038009</v>
+        <v>98.25490596901302</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>98.06900939017422</v>
+        <v>98.32839331878446</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -837,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>97.08082668039965</v>
+        <v>97.22558774092572</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -845,7 +845,7 @@
         <v>41</v>
       </c>
       <c r="G36">
-        <v>96.94003072747557</v>
+        <v>97.24699659693512</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>91.06386960526332</v>
+        <v>90.53224334979524</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -861,7 +861,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>96.321212591055</v>
+        <v>92.61237230484846</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -869,7 +869,7 @@
         <v>44</v>
       </c>
       <c r="H39">
-        <v>95.74946468763595</v>
+        <v>95.8771402532327</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -877,7 +877,7 @@
         <v>45</v>
       </c>
       <c r="H40">
-        <v>95.65504389500448</v>
+        <v>95.81760157069749</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -885,7 +885,7 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>99.40641019053878</v>
+        <v>98.46355862844388</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -893,7 +893,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>99.30443218539854</v>
+        <v>98.11542575674849</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -901,7 +901,7 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>99.23676760517223</v>
+        <v>99.2903186757181</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -909,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>98.91513840486628</v>
+        <v>99.23788476988348</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -917,7 +917,7 @@
         <v>50</v>
       </c>
       <c r="E45">
-        <v>98.55802138232042</v>
+        <v>98.73713926589632</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -925,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="E46">
-        <v>98.37251285026414</v>
+        <v>98.67393416462255</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -933,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="F47">
-        <v>97.96778887231942</v>
+        <v>98.29375315960617</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -941,7 +941,7 @@
         <v>53</v>
       </c>
       <c r="F48">
-        <v>98.02543785841404</v>
+        <v>98.16132394066372</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -949,7 +949,7 @@
         <v>54</v>
       </c>
       <c r="G49">
-        <v>96.99415331214121</v>
+        <v>97.23947772932038</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -957,7 +957,7 @@
         <v>55</v>
       </c>
       <c r="G50">
-        <v>97.12326442906934</v>
+        <v>97.34820116697385</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_AREPD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>d=1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>d=5</t>
   </si>
   <si>
+    <t>d=6</t>
+  </si>
+  <si>
     <t>d=7</t>
   </si>
   <si>
@@ -91,6 +94,15 @@
     <t>ARMA_I(0,5,2)</t>
   </si>
   <si>
+    <t>ARMA_I(0,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(0,6,1)</t>
+  </si>
+  <si>
+    <t>ARMA_I(0,6,2)</t>
+  </si>
+  <si>
     <t>ARMA_I(0,7,0)</t>
   </si>
   <si>
@@ -136,6 +148,12 @@
     <t>ARMA_I(1,5,1)</t>
   </si>
   <si>
+    <t>ARMA_I(1,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(1,6,1)</t>
+  </si>
+  <si>
     <t>ARMA_I(1,7,0)</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
   </si>
   <si>
     <t>ARMA_I(2,5,2)</t>
+  </si>
+  <si>
+    <t>ARMA_I(2,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(2,6,2)</t>
   </si>
   <si>
     <t>ARMA_I(2,7,0)</t>
@@ -539,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,396 +591,455 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>82.40641713471288</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>86.73939412659749</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>89.80045417174072</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>95.88925451112898</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
         <v>95.88701720109172</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>95.87308791677911</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>98.41432840090805</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>97.0255619905421</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>98.11787034460517</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>99.32639786170625</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>99.21500274414939</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>99.27432671514555</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>98.72743293293674</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>98.79197456695178</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>98.7566203622452</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>98.2289834120438</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>98.29785025341207</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>98.21321661171832</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20">
+        <v>97.81703327887682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>97.852526539316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>97.7664952642947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
         <v>97.25361541597267</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
         <v>97.33924396059854</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
         <v>97.28763606178265</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>88.85368895367749</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>91.8468054008783</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
         <v>95.91481121943517</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
         <v>95.87691392297177</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
         <v>97.7092903514183</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
         <v>97.88577715113331</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
         <v>99.28963624262335</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
         <v>99.26375222298115</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
         <v>98.78417761786724</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
         <v>98.74528000914586</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
         <v>98.25490596901302</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
         <v>98.32839331878446</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>97.7971539362587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>97.73701677958006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40">
         <v>97.22558774092572</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41">
         <v>97.24699659693512</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
         <v>90.53224334979524</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>92.61237230484846</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44">
         <v>95.8771402532327</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45">
         <v>95.81760157069749</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
         <v>98.46355862844388</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
         <v>98.11542575674849</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
         <v>99.2903186757181</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
         <v>99.23788476988348</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
         <v>98.73713926589632</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
         <v>98.67393416462255</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
         <v>98.29375315960617</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53">
         <v>98.16132394066372</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>97.77557490282635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55">
+        <v>97.70591282608083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56">
         <v>97.23947772932038</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57">
         <v>97.34820116697385</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_AREPD.xlsx
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>95.88925451112898</v>
+        <v>95.91309585481312</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>95.88701720109172</v>
+        <v>95.93606495153165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="I7">
-        <v>95.87308791677911</v>
+        <v>95.93396177026902</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -744,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="G20">
-        <v>97.81703327887682</v>
+        <v>97.72876282784233</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="G21">
-        <v>97.852526539316</v>
+        <v>97.81628922157634</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -760,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="G22">
-        <v>97.7664952642947</v>
+        <v>97.77393150350308</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -768,7 +768,7 @@
         <v>29</v>
       </c>
       <c r="H23">
-        <v>97.25361541597267</v>
+        <v>97.30063949819609</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>97.33924396059854</v>
+        <v>97.30207358240769</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -784,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>97.28763606178265</v>
+        <v>97.29438423966143</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -808,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="I28">
-        <v>95.91481121943517</v>
+        <v>95.83124397915222</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -816,7 +816,7 @@
         <v>35</v>
       </c>
       <c r="I29">
-        <v>95.87691392297177</v>
+        <v>95.86800017832331</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="G38">
-        <v>97.7971539362587</v>
+        <v>97.72911929903448</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -896,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="G39">
-        <v>97.73701677958006</v>
+        <v>97.73341690771791</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -904,7 +904,7 @@
         <v>46</v>
       </c>
       <c r="H40">
-        <v>97.22558774092572</v>
+        <v>97.31303137772166</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -912,7 +912,7 @@
         <v>47</v>
       </c>
       <c r="H41">
-        <v>97.24699659693512</v>
+        <v>97.29695221162127</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="I44">
-        <v>95.8771402532327</v>
+        <v>95.86728050753651</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -944,7 +944,7 @@
         <v>51</v>
       </c>
       <c r="I45">
-        <v>95.81760157069749</v>
+        <v>95.93715225614618</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="G54">
-        <v>97.77557490282635</v>
+        <v>97.72106763984402</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1024,7 +1024,7 @@
         <v>61</v>
       </c>
       <c r="G55">
-        <v>97.70591282608083</v>
+        <v>97.76249721655044</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1032,7 +1032,7 @@
         <v>62</v>
       </c>
       <c r="H56">
-        <v>97.23947772932038</v>
+        <v>97.2521272267546</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1040,7 +1040,7 @@
         <v>63</v>
       </c>
       <c r="H57">
-        <v>97.34820116697385</v>
+        <v>97.17059767823359</v>
       </c>
     </row>
   </sheetData>
